--- a/REGULAR/MAHOGANY MARKET/ANGCAYA, FRANCIS.xlsx
+++ b/REGULAR/MAHOGANY MARKET/ANGCAYA, FRANCIS.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="199">
   <si>
     <t>PERIOD</t>
   </si>
@@ -627,6 +627,9 @@
   </si>
   <si>
     <t>UT(0-0-20)</t>
+  </si>
+  <si>
+    <t>10/23-25/2023</t>
   </si>
 </sst>
 </file>
@@ -1662,7 +1665,7 @@
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A353" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="K366" sqref="K366"/>
+      <selection pane="bottomLeft" activeCell="J368" sqref="J368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1823,7 +1826,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>143.53500000000008</v>
+        <v>141.78500000000008</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1833,7 +1836,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>360.375</v>
+        <v>361.625</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -9472,13 +9475,15 @@
         <v>45170</v>
       </c>
       <c r="B367" s="20"/>
-      <c r="C367" s="13"/>
+      <c r="C367" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D367" s="38"/>
       <c r="E367" s="9"/>
       <c r="F367" s="20"/>
-      <c r="G367" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G367" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H367" s="38"/>
       <c r="I367" s="9"/>
@@ -9489,9 +9494,13 @@
       <c r="A368" s="39">
         <v>45200</v>
       </c>
-      <c r="B368" s="20"/>
+      <c r="B368" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="C368" s="13"/>
-      <c r="D368" s="38"/>
+      <c r="D368" s="38">
+        <v>3</v>
+      </c>
       <c r="E368" s="9"/>
       <c r="F368" s="20"/>
       <c r="G368" s="13" t="str">
@@ -9501,7 +9510,9 @@
       <c r="H368" s="38"/>
       <c r="I368" s="9"/>
       <c r="J368" s="11"/>
-      <c r="K368" s="20"/>
+      <c r="K368" s="20" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="39">
